--- a/pwbi/Modello Strutturale/nameofbeams.xlsx
+++ b/pwbi/Modello Strutturale/nameofbeams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Strutturale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CE7B83-BB51-4AB4-A4E2-55B3A8D589FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847605E2-36F6-4456-BF29-AEE745CA2247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nameofbeams" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Object ID</t>
   </si>
@@ -176,12 +176,21 @@
   </si>
   <si>
     <t>T22</t>
+  </si>
+  <si>
+    <t>TRAVERSO 1</t>
+  </si>
+  <si>
+    <t>TRAVERSO 2</t>
+  </si>
+  <si>
+    <t>TRAVERSO 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -614,8 +623,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -658,12 +682,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -694,6 +720,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="42" xr:uid="{FE390051-7445-4ADC-BAB5-14E939D3FA83}"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1016,16 +1043,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,6 +1121,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1143,6 +1174,9 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1203,6 +1237,9 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
